--- a/qPCR/input/qPCRmycorrhiza.xlsx
+++ b/qPCR/input/qPCRmycorrhiza.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majaz\Desktop\backup\GitHub\Bacillus-Pti5\qPCR\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D762B37-3A44-4CB6-9BEB-C346AB224BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED208489-48E3-4CFC-BD0D-38B0486CCCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gene expression raw" sheetId="2" r:id="rId1"/>
+    <sheet name="additionalGenes" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="51">
   <si>
     <t>Replicate</t>
   </si>
@@ -66,13 +67,136 @@
   </si>
   <si>
     <t>NT</t>
+  </si>
+  <si>
+    <t>Sample name</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>RBOHD</t>
+  </si>
+  <si>
+    <t>HSP70</t>
+  </si>
+  <si>
+    <t>BGLU2</t>
+  </si>
+  <si>
+    <t>CPI8</t>
+  </si>
+  <si>
+    <t>PR1B</t>
+  </si>
+  <si>
+    <t>13-LOX</t>
+  </si>
+  <si>
+    <t>PTI5</t>
+  </si>
+  <si>
+    <t>AMF_01</t>
+  </si>
+  <si>
+    <t>noninoculated</t>
+  </si>
+  <si>
+    <t>Rywal</t>
+  </si>
+  <si>
+    <t>AMF_02</t>
+  </si>
+  <si>
+    <t>AMF_03</t>
+  </si>
+  <si>
+    <t>AMF_04</t>
+  </si>
+  <si>
+    <t>AMF_05</t>
+  </si>
+  <si>
+    <t>shPTI5-Rywal L2</t>
+  </si>
+  <si>
+    <t>AMF_06</t>
+  </si>
+  <si>
+    <t>AMF_07</t>
+  </si>
+  <si>
+    <t>AMF_08</t>
+  </si>
+  <si>
+    <t>AMF_09</t>
+  </si>
+  <si>
+    <t>shPTI5-Rywal L6</t>
+  </si>
+  <si>
+    <t>AMF_10</t>
+  </si>
+  <si>
+    <t>AMF_11</t>
+  </si>
+  <si>
+    <t>AMF_12</t>
+  </si>
+  <si>
+    <t>AMF_13</t>
+  </si>
+  <si>
+    <t>inoculated</t>
+  </si>
+  <si>
+    <t>AMF_14</t>
+  </si>
+  <si>
+    <t>AMF_15</t>
+  </si>
+  <si>
+    <t>AMF_16</t>
+  </si>
+  <si>
+    <t>AMF_17</t>
+  </si>
+  <si>
+    <t>AMF_18</t>
+  </si>
+  <si>
+    <t>AMF_19</t>
+  </si>
+  <si>
+    <t>AMF_20</t>
+  </si>
+  <si>
+    <t>AMF_21</t>
+  </si>
+  <si>
+    <t>AMF_22</t>
+  </si>
+  <si>
+    <t>AMF_23</t>
+  </si>
+  <si>
+    <t>AMF_24</t>
+  </si>
+  <si>
+    <t>AMF_25</t>
+  </si>
+  <si>
+    <t>AMF_26</t>
+  </si>
+  <si>
+    <t>AMF_27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +218,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -103,7 +248,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -111,16 +256,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D54731FF-25DF-440E-AA18-A3B5F0ED28DC}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{A29949EB-9F48-4485-B1DD-BE0BF9865713}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,9 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD64"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1092,4 +1350,964 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80A4F14-3242-465E-917B-7017331C33A0}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>0.42481099999999999</v>
+      </c>
+      <c r="E2">
+        <v>1.5879810000000001</v>
+      </c>
+      <c r="F2">
+        <v>2.3679290000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.14067399999999999</v>
+      </c>
+      <c r="H2">
+        <v>2.4776220000000002</v>
+      </c>
+      <c r="I2">
+        <v>0.19859399999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.29814400000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>0.34853499999999998</v>
+      </c>
+      <c r="E4">
+        <v>1.552565</v>
+      </c>
+      <c r="F4">
+        <v>3.9894020000000001</v>
+      </c>
+      <c r="G4">
+        <v>5.1609000000000002E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.72958100000000004</v>
+      </c>
+      <c r="J4">
+        <v>0.44395200000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>0.40127600000000002</v>
+      </c>
+      <c r="E5">
+        <v>1.4256279999999999</v>
+      </c>
+      <c r="F5">
+        <v>2.5436800000000002</v>
+      </c>
+      <c r="G5">
+        <v>4.4601000000000002E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.89729400000000004</v>
+      </c>
+      <c r="I5">
+        <v>0.99765499999999996</v>
+      </c>
+      <c r="J5">
+        <v>0.375116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>0.55409399999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.89496200000000004</v>
+      </c>
+      <c r="F6">
+        <v>14.695781999999999</v>
+      </c>
+      <c r="G6">
+        <v>3.0089000000000001E-2</v>
+      </c>
+      <c r="H6">
+        <v>13.45895</v>
+      </c>
+      <c r="I6">
+        <v>0.32812400000000003</v>
+      </c>
+      <c r="J6">
+        <v>1.594579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>0.124167</v>
+      </c>
+      <c r="E7">
+        <v>1.2308570000000001</v>
+      </c>
+      <c r="F7">
+        <v>1.441743</v>
+      </c>
+      <c r="G7">
+        <v>1.6979999999999999E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.50155300000000003</v>
+      </c>
+      <c r="I7">
+        <v>0.17540600000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.62331700000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>0.25749499999999997</v>
+      </c>
+      <c r="E8">
+        <v>1.2088019999999999</v>
+      </c>
+      <c r="F8">
+        <v>4.3833729999999997</v>
+      </c>
+      <c r="G8">
+        <v>1.7184999999999999E-2</v>
+      </c>
+      <c r="H8">
+        <v>4.2195130000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.15706999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.86663199999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>0.242732</v>
+      </c>
+      <c r="E9">
+        <v>0.96416299999999999</v>
+      </c>
+      <c r="F9">
+        <v>3.0207549999999999</v>
+      </c>
+      <c r="G9">
+        <v>1.3134E-2</v>
+      </c>
+      <c r="H9">
+        <v>3.5000290000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.14361699999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.68739300000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>5.1156E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.2124459999999999</v>
+      </c>
+      <c r="F10">
+        <v>17.211955</v>
+      </c>
+      <c r="G10">
+        <v>0.11683399999999999</v>
+      </c>
+      <c r="H10">
+        <v>32.333356000000002</v>
+      </c>
+      <c r="J10">
+        <v>5.299175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>0.539663</v>
+      </c>
+      <c r="E11">
+        <v>1.4884310000000001</v>
+      </c>
+      <c r="F11">
+        <v>11.913024999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.137019</v>
+      </c>
+      <c r="H11">
+        <v>32.920420999999997</v>
+      </c>
+      <c r="I11">
+        <v>0.61655099999999996</v>
+      </c>
+      <c r="J11">
+        <v>4.9660450000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>0.40151599999999998</v>
+      </c>
+      <c r="E12">
+        <v>1.169054</v>
+      </c>
+      <c r="F12">
+        <v>15.029529</v>
+      </c>
+      <c r="G12">
+        <v>7.6009999999999994E-2</v>
+      </c>
+      <c r="H12">
+        <v>10.517431</v>
+      </c>
+      <c r="I12">
+        <v>0.67333799999999999</v>
+      </c>
+      <c r="J12">
+        <v>4.431241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0.61406400000000005</v>
+      </c>
+      <c r="E13">
+        <v>1.3543449999999999</v>
+      </c>
+      <c r="F13">
+        <v>15.153358000000001</v>
+      </c>
+      <c r="H13">
+        <v>21.437557999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="J13">
+        <v>4.5516589999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>0.61955000000000005</v>
+      </c>
+      <c r="E14">
+        <v>1.0837380000000001</v>
+      </c>
+      <c r="F14">
+        <v>10.458485</v>
+      </c>
+      <c r="G14">
+        <v>0.112258</v>
+      </c>
+      <c r="H14">
+        <v>2.2520929999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.19736999999999999</v>
+      </c>
+      <c r="J14">
+        <v>0.26205800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>0.93546799999999997</v>
+      </c>
+      <c r="E15">
+        <v>1.8029189999999999</v>
+      </c>
+      <c r="F15">
+        <v>28.739916000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.16385</v>
+      </c>
+      <c r="H15">
+        <v>12.199661000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.38922499999999999</v>
+      </c>
+      <c r="J15">
+        <v>0.53184699999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>0.688168</v>
+      </c>
+      <c r="E16">
+        <v>1.9125270000000001</v>
+      </c>
+      <c r="F16">
+        <v>12.152759</v>
+      </c>
+      <c r="G16">
+        <v>0.14237</v>
+      </c>
+      <c r="H16">
+        <v>6.4998820000000004</v>
+      </c>
+      <c r="I16">
+        <v>0.31966</v>
+      </c>
+      <c r="J16">
+        <v>0.509683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>0.90446599999999999</v>
+      </c>
+      <c r="E17">
+        <v>1.749933</v>
+      </c>
+      <c r="F17">
+        <v>19.534714000000001</v>
+      </c>
+      <c r="G17">
+        <v>9.4199000000000005E-2</v>
+      </c>
+      <c r="H17">
+        <v>5.6104620000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.25927</v>
+      </c>
+      <c r="J17">
+        <v>0.59473299999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>0.80429499999999998</v>
+      </c>
+      <c r="E18">
+        <v>1.5889789999999999</v>
+      </c>
+      <c r="F18">
+        <v>19.821556999999999</v>
+      </c>
+      <c r="G18">
+        <v>6.6930000000000003E-2</v>
+      </c>
+      <c r="H18">
+        <v>4.2781380000000002</v>
+      </c>
+      <c r="I18">
+        <v>0.23416799999999999</v>
+      </c>
+      <c r="J18">
+        <v>0.50007800000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>0.82782100000000003</v>
+      </c>
+      <c r="E19">
+        <v>1.523474</v>
+      </c>
+      <c r="F19">
+        <v>31.830114999999999</v>
+      </c>
+      <c r="G19">
+        <v>7.7091000000000007E-2</v>
+      </c>
+      <c r="H19">
+        <v>17.899896999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.299483</v>
+      </c>
+      <c r="J19">
+        <v>1.918471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>0.42282900000000001</v>
+      </c>
+      <c r="E20">
+        <v>1.2002379999999999</v>
+      </c>
+      <c r="F20">
+        <v>28.063545999999999</v>
+      </c>
+      <c r="G20">
+        <v>8.8142999999999999E-2</v>
+      </c>
+      <c r="H20">
+        <v>11.179235</v>
+      </c>
+      <c r="I20">
+        <v>0.38871600000000001</v>
+      </c>
+      <c r="J20">
+        <v>2.2595390000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>0.40791100000000002</v>
+      </c>
+      <c r="E21">
+        <v>1.710933</v>
+      </c>
+      <c r="F21">
+        <v>18.048490000000001</v>
+      </c>
+      <c r="G21">
+        <v>8.6168999999999996E-2</v>
+      </c>
+      <c r="H21">
+        <v>4.5633660000000003</v>
+      </c>
+      <c r="I21">
+        <v>0.26947399999999999</v>
+      </c>
+      <c r="J21">
+        <v>1.529388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>0.60085100000000002</v>
+      </c>
+      <c r="E22">
+        <v>1.1275139999999999</v>
+      </c>
+      <c r="F22">
+        <v>10.903836999999999</v>
+      </c>
+      <c r="G22">
+        <v>6.3953999999999997E-2</v>
+      </c>
+      <c r="H22">
+        <v>10.372237</v>
+      </c>
+      <c r="I22">
+        <v>0.252915</v>
+      </c>
+      <c r="J22">
+        <v>1.606274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>0.86531499999999995</v>
+      </c>
+      <c r="E23">
+        <v>1.5037240000000001</v>
+      </c>
+      <c r="F23">
+        <v>29.477889999999999</v>
+      </c>
+      <c r="G23">
+        <v>0.121729</v>
+      </c>
+      <c r="I23">
+        <v>0.39465899999999998</v>
+      </c>
+      <c r="J23">
+        <v>1.4943310000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>0.561859</v>
+      </c>
+      <c r="E24">
+        <v>1.284025</v>
+      </c>
+      <c r="F24">
+        <v>26.885967000000001</v>
+      </c>
+      <c r="G24">
+        <v>8.0819000000000002E-2</v>
+      </c>
+      <c r="H24">
+        <v>12.171903</v>
+      </c>
+      <c r="I24">
+        <v>0.27347900000000003</v>
+      </c>
+      <c r="J24">
+        <v>2.9861300000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>0.54796699999999998</v>
+      </c>
+      <c r="E25">
+        <v>1.2271609999999999</v>
+      </c>
+      <c r="F25">
+        <v>22.108836</v>
+      </c>
+      <c r="I25">
+        <v>0.28692699999999999</v>
+      </c>
+      <c r="J25">
+        <v>3.32273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>0.93231600000000003</v>
+      </c>
+      <c r="E26">
+        <v>1.3722730000000001</v>
+      </c>
+      <c r="F26">
+        <v>15.088136</v>
+      </c>
+      <c r="G26">
+        <v>0.14651800000000001</v>
+      </c>
+      <c r="H26">
+        <v>10.818974000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.311247</v>
+      </c>
+      <c r="J26">
+        <v>4.0081730000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>0.84712600000000005</v>
+      </c>
+      <c r="E27">
+        <v>1.062627</v>
+      </c>
+      <c r="F27">
+        <v>17.956961</v>
+      </c>
+      <c r="G27">
+        <v>5.2866000000000003E-2</v>
+      </c>
+      <c r="H27">
+        <v>8.2332520000000002</v>
+      </c>
+      <c r="I27">
+        <v>0.27508300000000002</v>
+      </c>
+      <c r="J27">
+        <v>3.0604770000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <v>0.72745599999999999</v>
+      </c>
+      <c r="E28">
+        <v>1.266035</v>
+      </c>
+      <c r="F28">
+        <v>20.845614999999999</v>
+      </c>
+      <c r="G28">
+        <v>6.8092E-2</v>
+      </c>
+      <c r="H28">
+        <v>14.253524000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.42617100000000002</v>
+      </c>
+      <c r="J28">
+        <v>4.0891469999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>